--- a/xdopenhard/data/data.xlsx
+++ b/xdopenhard/data/data.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="30750" windowHeight="14265"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="885">
-  <si>
-    <t>github地址收集-反馈数据 (2020-06-23)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="890">
+  <si>
+    <t>github地址收集-反馈数据 (2020-07-12)</t>
   </si>
   <si>
     <t>序号</t>
@@ -38,24 +37,51 @@
     <t>仓库地址</t>
   </si>
   <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>2020-07-01 01:56:58</t>
+  </si>
+  <si>
+    <t>陈欣</t>
+  </si>
+  <si>
+    <t>通信工程学院</t>
+  </si>
+  <si>
+    <t>19010100375</t>
+  </si>
+  <si>
+    <t>git@github.com:Xin-chenn-890/xd0615.git</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>2020-06-23 21:21:08</t>
+  </si>
+  <si>
+    <t>车轶凡</t>
+  </si>
+  <si>
+    <t>计算机科学与技术学院</t>
+  </si>
+  <si>
+    <t>19030100067</t>
+  </si>
+  <si>
+    <t>git@github.com:cyf112358/xd0615.git</t>
+  </si>
+  <si>
     <t>188</t>
   </si>
   <si>
     <t>2020-06-22 22:14:26</t>
   </si>
   <si>
-    <t>车轶凡</t>
-  </si>
-  <si>
-    <t>计算机科学与技术学院</t>
-  </si>
-  <si>
     <t>190301000067</t>
   </si>
   <si>
-    <t>git@github.com:cyf112358/xd0615.git</t>
-  </si>
-  <si>
     <t>187</t>
   </si>
   <si>
@@ -101,9 +127,6 @@
     <t>李玉菊</t>
   </si>
   <si>
-    <t>通信工程学院</t>
-  </si>
-  <si>
     <t>19010500055</t>
   </si>
   <si>
@@ -2264,9 +2287,6 @@
     <t>190304</t>
   </si>
   <si>
-    <t>19030100067</t>
-  </si>
-  <si>
     <t>https://github.com/cyf112358/xd0615.git</t>
   </si>
   <si>
@@ -2664,78 +2684,203 @@
   </si>
   <si>
     <t>1801017</t>
-  </si>
-  <si>
-    <t>由麦客CRM提供技术支持 ©2012-2020</t>
-  </si>
-  <si>
-    <t>http://www.mikecrm.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2743,9 +2888,201 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2759,33 +3096,323 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3070,39 +3697,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A193" sqref="$A193:$XFD193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20" customWidth="true" style="0"/>
-    <col min="4" max="4" width="20" customWidth="true" style="0"/>
-    <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customHeight="1" ht="30">
+    <row r="1" ht="30" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -3172,196 +3787,196 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3375,7 +3990,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>75</v>
@@ -3392,90 +4007,90 @@
         <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>100</v>
@@ -3492,33 +4107,33 @@
         <v>103</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>109</v>
@@ -3535,7 +4150,7 @@
         <v>112</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>113</v>
@@ -3552,110 +4167,110 @@
         <v>116</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>143</v>
@@ -3672,93 +4287,93 @@
         <v>146</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="D31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="D32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>167</v>
@@ -3775,7 +4390,7 @@
         <v>170</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>171</v>
@@ -3792,453 +4407,453 @@
         <v>174</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="D39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="D40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="D41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="E43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="D44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="D45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="D46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="D49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="D50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>58</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>254</v>
+        <v>65</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>255</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="D53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="D54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="D55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="D58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>283</v>
@@ -4255,7 +4870,7 @@
         <v>286</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>287</v>
@@ -4272,153 +4887,153 @@
         <v>290</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="D61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="D66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="D67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>329</v>
@@ -4435,7 +5050,7 @@
         <v>332</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>333</v>
@@ -4452,30 +5067,30 @@
         <v>336</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>58</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>340</v>
+        <v>184</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>341</v>
@@ -4492,70 +5107,70 @@
         <v>344</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>345</v>
+        <v>63</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>346</v>
+        <v>65</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>347</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>360</v>
@@ -4572,436 +5187,436 @@
         <v>363</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="D76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="D77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="D78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="D81" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="D82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="D83" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="D84" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="D85" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="D86" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="D87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="D88" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="D89" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="D90" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="D91" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="D92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="D93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="D94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="D95" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="F96" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5015,73 +5630,73 @@
         <v>473</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>123</v>
+        <v>474</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>478</v>
+        <v>199</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>479</v>
+        <v>200</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>480</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="D99" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5092,396 +5707,396 @@
         <v>490</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>104</v>
+        <v>491</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>56</v>
+        <v>492</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>105</v>
+        <v>493</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>106</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>498</v>
+        <v>112</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>499</v>
+        <v>113</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>500</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="D104" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="D105" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="F105" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="D106" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="F106" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="D107" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="D108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="D109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="D110" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="D111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="D112" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="D113" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="D114" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="D115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="D116" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="D117" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>564</v>
-      </c>
       <c r="F117" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>220</v>
+        <v>571</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>221</v>
+        <v>572</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>222</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="3" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="D119" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E119" s="3" t="s">
+      <c r="F119" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>577</v>
+        <v>228</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5495,7 +6110,7 @@
         <v>580</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>303</v>
+        <v>131</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>581</v>
@@ -5515,190 +6130,190 @@
         <v>585</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>586</v>
+        <v>48</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>587</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="D123" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="D124" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="D125" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="D126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="F126" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="D127" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="D128" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="F128" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="D129" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="F129" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="D130" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="D131" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>630</v>
@@ -5709,13 +6324,13 @@
         <v>631</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>633</v>
+        <v>16</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>634</v>
@@ -5732,13 +6347,13 @@
         <v>637</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>638</v>
@@ -5749,13 +6364,13 @@
         <v>639</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>642</v>
@@ -5772,296 +6387,296 @@
         <v>645</v>
       </c>
       <c r="C135" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="D136" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="D137" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="F137" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="D138" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="F138" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="D139" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="F139" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="D140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="F140" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="D141" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="D142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="D143" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>686</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="D144" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="F144" s="3" t="s">
         <v>691</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="D145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="F146" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="E147" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="D148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="D149" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D149" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6072,107 +6687,107 @@
         <v>719</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>98</v>
+        <v>720</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>720</v>
+        <v>131</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>100</v>
+        <v>721</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>101</v>
+        <v>722</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="3" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>723</v>
+        <v>481</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>725</v>
+        <v>482</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>726</v>
+        <v>483</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="C152" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>724</v>
-      </c>
       <c r="E152" s="3" t="s">
-        <v>725</v>
+        <v>108</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>729</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="E153" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="F153" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="C154" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F154" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>707</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>741</v>
@@ -6181,47 +6796,47 @@
         <v>742</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>709</v>
+        <v>743</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>553</v>
+        <v>228</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>554</v>
+        <v>229</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>555</v>
+        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>9</v>
+        <v>715</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6232,596 +6847,596 @@
         <v>752</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>754</v>
-      </c>
       <c r="E158" s="3" t="s">
-        <v>755</v>
+        <v>562</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>756</v>
+        <v>563</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" s="3" t="s">
         <v>757</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="D160" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D160" s="3" t="s">
+      <c r="E160" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>647</v>
-      </c>
       <c r="F160" s="3" t="s">
-        <v>648</v>
+        <v>763</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>483</v>
+        <v>347</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>485</v>
+        <v>349</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>486</v>
+        <v>766</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>768</v>
+        <v>654</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>769</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>770</v>
+        <v>655</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>771</v>
+        <v>656</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>775</v>
-      </c>
       <c r="E163" s="3" t="s">
-        <v>776</v>
+        <v>493</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>777</v>
+        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F164" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E165" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="F165" s="3" t="s">
         <v>784</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="E167" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="F167" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>800</v>
-      </c>
       <c r="E168" s="3" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>802</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>163</v>
+        <v>803</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>671</v>
+        <v>24</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>672</v>
+        <v>26</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>673</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>807</v>
-      </c>
       <c r="C171" s="3" t="s">
-        <v>605</v>
+        <v>170</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>606</v>
+        <v>171</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>607</v>
+        <v>810</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="E172" s="3" t="s">
-        <v>153</v>
+        <v>680</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>154</v>
+        <v>681</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="3" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>813</v>
+        <v>613</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>815</v>
+        <v>614</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>816</v>
+        <v>615</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>818</v>
-      </c>
       <c r="C174" s="3" t="s">
-        <v>819</v>
+        <v>160</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>820</v>
+        <v>728</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>821</v>
+        <v>161</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>822</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="F175" s="3" t="s">
         <v>823</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="E176" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="F176" s="3" t="s">
         <v>829</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>834</v>
-      </c>
       <c r="E177" s="3" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>741</v>
-      </c>
       <c r="E178" s="3" t="s">
-        <v>559</v>
+        <v>837</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>560</v>
+        <v>838</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>696</v>
+        <v>150</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>698</v>
+        <v>151</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>699</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>732</v>
+        <v>566</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>734</v>
+        <v>567</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>842</v>
+        <v>568</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>498</v>
+        <v>704</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>800</v>
+        <v>846</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>499</v>
+        <v>706</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>845</v>
+        <v>707</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>345</v>
+        <v>740</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>346</v>
+        <v>742</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>347</v>
+        <v>849</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="3" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>850</v>
+        <v>506</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>851</v>
+        <v>807</v>
       </c>
       <c r="E183" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F183" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>855</v>
-      </c>
       <c r="C184" s="3" t="s">
-        <v>632</v>
+        <v>353</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>634</v>
+        <v>354</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>635</v>
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="E185" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="F185" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>863</v>
-      </c>
       <c r="C186" s="3" t="s">
-        <v>364</v>
+        <v>640</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>864</v>
+        <v>756</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>365</v>
+        <v>642</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>366</v>
+        <v>643</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="E187" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="F187" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -6832,83 +7447,105 @@
         <v>870</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>800</v>
-      </c>
       <c r="E188" s="3" t="s">
-        <v>872</v>
+        <v>373</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>873</v>
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="D189" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="C189" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>877</v>
-      </c>
       <c r="E189" s="3" t="s">
-        <v>878</v>
+        <v>537</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>879</v>
+        <v>538</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="F190" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="B190" s="3" t="s">
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="C190" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D190" s="3" t="s">
+      <c r="B191" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="E190" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>663</v>
+      <c r="C191" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="4" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="4" t="s">
-        <v>884</v>
+      <c r="A192" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.4" right="0.4" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="8" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>